--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gdf7-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gdf7-Bmpr2.xlsx
@@ -549,10 +549,10 @@
         <v>0.234979</v>
       </c>
       <c r="I2">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222286</v>
       </c>
       <c r="J2">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222285</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.017979</v>
+        <v>36.81180933333333</v>
       </c>
       <c r="N2">
-        <v>96.05393699999999</v>
+        <v>110.435428</v>
       </c>
       <c r="O2">
-        <v>0.2161524839374963</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="P2">
-        <v>0.2161524839374964</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="Q2">
-        <v>2.507850895813666</v>
+        <v>2.883334048445777</v>
       </c>
       <c r="R2">
-        <v>22.570658062323</v>
+        <v>25.950006436012</v>
       </c>
       <c r="S2">
-        <v>0.1041434771494017</v>
+        <v>0.2340365594894611</v>
       </c>
       <c r="T2">
-        <v>0.1041434771494017</v>
+        <v>0.2340365594894611</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>0.234979</v>
       </c>
       <c r="I3">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222286</v>
       </c>
       <c r="J3">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222285</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>83.72704</v>
       </c>
       <c r="O3">
-        <v>0.1884129712323412</v>
+        <v>0.1970278712683331</v>
       </c>
       <c r="P3">
-        <v>0.1884129712323412</v>
+        <v>0.197027871268333</v>
       </c>
       <c r="Q3">
         <v>2.186010681351111</v>
@@ -641,10 +641,10 @@
         <v>19.67409613216</v>
       </c>
       <c r="S3">
-        <v>0.0907784245952047</v>
+        <v>0.1774357082025932</v>
       </c>
       <c r="T3">
-        <v>0.0907784245952047</v>
+        <v>0.1774357082025932</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>0.234979</v>
       </c>
       <c r="I4">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222286</v>
       </c>
       <c r="J4">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222285</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.29987433333334</v>
+        <v>21.95609833333333</v>
       </c>
       <c r="N4">
-        <v>60.89962300000001</v>
+        <v>65.868295</v>
       </c>
       <c r="O4">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="P4">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="Q4">
-        <v>1.590014723657444</v>
+        <v>1.719740676756111</v>
       </c>
       <c r="R4">
-        <v>14.310132512917</v>
+        <v>15.477666090805</v>
       </c>
       <c r="S4">
-        <v>0.06602851162995724</v>
+        <v>0.1395891646405072</v>
       </c>
       <c r="T4">
-        <v>0.06602851162995724</v>
+        <v>0.1395891646405072</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>0.234979</v>
       </c>
       <c r="I5">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222286</v>
       </c>
       <c r="J5">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222285</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.85718966666667</v>
+        <v>13.23098133333333</v>
       </c>
       <c r="N5">
-        <v>83.571569</v>
+        <v>39.692944</v>
       </c>
       <c r="O5">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756826</v>
       </c>
       <c r="P5">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756825</v>
       </c>
       <c r="Q5">
-        <v>2.181951523561222</v>
+        <v>1.036334254241778</v>
       </c>
       <c r="R5">
-        <v>19.637563712051</v>
+        <v>9.327008288176</v>
       </c>
       <c r="S5">
-        <v>0.09060986002573895</v>
+        <v>0.08411793405434938</v>
       </c>
       <c r="T5">
-        <v>0.09060986002573897</v>
+        <v>0.08411793405434935</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>0.234979</v>
       </c>
       <c r="I6">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222286</v>
       </c>
       <c r="J6">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222285</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.57385566666667</v>
+        <v>22.080681</v>
       </c>
       <c r="N6">
-        <v>52.72156700000001</v>
+        <v>66.242043</v>
       </c>
       <c r="O6">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="P6">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="Q6">
-        <v>1.376495676899222</v>
+        <v>1.729498780233</v>
       </c>
       <c r="R6">
-        <v>12.388461092093</v>
+        <v>15.565489022097</v>
       </c>
       <c r="S6">
-        <v>0.0571617101769098</v>
+        <v>0.1403812174954666</v>
       </c>
       <c r="T6">
-        <v>0.0571617101769098</v>
+        <v>0.1403812174954666</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>0.234979</v>
       </c>
       <c r="I7">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222286</v>
       </c>
       <c r="J7">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222285</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.468903</v>
+        <v>19.66149466666667</v>
       </c>
       <c r="N7">
-        <v>67.40670900000001</v>
+        <v>58.984484</v>
       </c>
       <c r="O7">
-        <v>0.1516869379794603</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="P7">
-        <v>0.1516869379794604</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="Q7">
-        <v>1.759906786012333</v>
+        <v>1.540012785092889</v>
       </c>
       <c r="R7">
-        <v>15.839161074111</v>
+        <v>13.860115065836</v>
       </c>
       <c r="S7">
-        <v>0.07308361611932544</v>
+        <v>0.1250008801398512</v>
       </c>
       <c r="T7">
-        <v>0.07308361611932544</v>
+        <v>0.1250008801398512</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.084242</v>
+        <v>0.008648666666666667</v>
       </c>
       <c r="H8">
-        <v>0.252726</v>
+        <v>0.025946</v>
       </c>
       <c r="I8">
-        <v>0.5181944003034622</v>
+        <v>0.0994385359777714</v>
       </c>
       <c r="J8">
-        <v>0.5181944003034622</v>
+        <v>0.09943853597777139</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>32.017979</v>
+        <v>36.81180933333333</v>
       </c>
       <c r="N8">
-        <v>96.05393699999999</v>
+        <v>110.435428</v>
       </c>
       <c r="O8">
-        <v>0.2161524839374963</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="P8">
-        <v>0.2161524839374964</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="Q8">
-        <v>2.697258586918</v>
+        <v>0.3183730683208889</v>
       </c>
       <c r="R8">
-        <v>24.275327282262</v>
+        <v>2.865357614888</v>
       </c>
       <c r="S8">
-        <v>0.1120090067880947</v>
+        <v>0.02584193724764152</v>
       </c>
       <c r="T8">
-        <v>0.1120090067880947</v>
+        <v>0.02584193724764152</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.084242</v>
+        <v>0.008648666666666667</v>
       </c>
       <c r="H9">
-        <v>0.252726</v>
+        <v>0.025946</v>
       </c>
       <c r="I9">
-        <v>0.5181944003034622</v>
+        <v>0.0994385359777714</v>
       </c>
       <c r="J9">
-        <v>0.5181944003034622</v>
+        <v>0.09943853597777139</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>83.72704</v>
       </c>
       <c r="O9">
-        <v>0.1884129712323412</v>
+        <v>0.1970278712683331</v>
       </c>
       <c r="P9">
-        <v>0.1884129712323412</v>
+        <v>0.197027871268333</v>
       </c>
       <c r="Q9">
-        <v>2.351111101226667</v>
+        <v>0.2413757533155556</v>
       </c>
       <c r="R9">
-        <v>21.15999991104</v>
+        <v>2.17238177984</v>
       </c>
       <c r="S9">
-        <v>0.09763454663713653</v>
+        <v>0.01959216306573985</v>
       </c>
       <c r="T9">
-        <v>0.09763454663713654</v>
+        <v>0.01959216306573984</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.084242</v>
+        <v>0.008648666666666667</v>
       </c>
       <c r="H10">
-        <v>0.252726</v>
+        <v>0.025946</v>
       </c>
       <c r="I10">
-        <v>0.5181944003034622</v>
+        <v>0.0994385359777714</v>
       </c>
       <c r="J10">
-        <v>0.5181944003034622</v>
+        <v>0.09943853597777139</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.29987433333334</v>
+        <v>21.95609833333333</v>
       </c>
       <c r="N10">
-        <v>60.89962300000001</v>
+        <v>65.868295</v>
       </c>
       <c r="O10">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="P10">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="Q10">
-        <v>1.710102013588667</v>
+        <v>0.1898909757855556</v>
       </c>
       <c r="R10">
-        <v>15.390918122298</v>
+        <v>1.70901878207</v>
       </c>
       <c r="S10">
-        <v>0.07101537426830727</v>
+        <v>0.01541320911980475</v>
       </c>
       <c r="T10">
-        <v>0.07101537426830727</v>
+        <v>0.01541320911980474</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.084242</v>
+        <v>0.008648666666666667</v>
       </c>
       <c r="H11">
-        <v>0.252726</v>
+        <v>0.025946</v>
       </c>
       <c r="I11">
-        <v>0.5181944003034622</v>
+        <v>0.0994385359777714</v>
       </c>
       <c r="J11">
-        <v>0.5181944003034622</v>
+        <v>0.09943853597777139</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.85718966666667</v>
+        <v>13.23098133333333</v>
       </c>
       <c r="N11">
-        <v>83.571569</v>
+        <v>39.692944</v>
       </c>
       <c r="O11">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756826</v>
       </c>
       <c r="P11">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756825</v>
       </c>
       <c r="Q11">
-        <v>2.346745371899333</v>
+        <v>0.1144303472248889</v>
       </c>
       <c r="R11">
-        <v>21.120708347094</v>
+        <v>1.029873125024</v>
       </c>
       <c r="S11">
-        <v>0.09745325107718096</v>
+        <v>0.009288165823218879</v>
       </c>
       <c r="T11">
-        <v>0.09745325107718097</v>
+        <v>0.009288165823218878</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.084242</v>
+        <v>0.008648666666666667</v>
       </c>
       <c r="H12">
-        <v>0.252726</v>
+        <v>0.025946</v>
       </c>
       <c r="I12">
-        <v>0.5181944003034622</v>
+        <v>0.0994385359777714</v>
       </c>
       <c r="J12">
-        <v>0.5181944003034622</v>
+        <v>0.09943853597777139</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.57385566666667</v>
+        <v>22.080681</v>
       </c>
       <c r="N12">
-        <v>52.72156700000001</v>
+        <v>66.242043</v>
       </c>
       <c r="O12">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="P12">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="Q12">
-        <v>1.480456749071334</v>
+        <v>0.190968449742</v>
       </c>
       <c r="R12">
-        <v>13.324110741642</v>
+        <v>1.718716047678</v>
       </c>
       <c r="S12">
-        <v>0.06147889967260779</v>
+        <v>0.01550066631119111</v>
       </c>
       <c r="T12">
-        <v>0.0614788996726078</v>
+        <v>0.01550066631119111</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.084242</v>
+        <v>0.008648666666666667</v>
       </c>
       <c r="H13">
-        <v>0.252726</v>
+        <v>0.025946</v>
       </c>
       <c r="I13">
-        <v>0.5181944003034622</v>
+        <v>0.0994385359777714</v>
       </c>
       <c r="J13">
-        <v>0.5181944003034622</v>
+        <v>0.09943853597777139</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.468903</v>
+        <v>19.66149466666667</v>
       </c>
       <c r="N13">
-        <v>67.40670900000001</v>
+        <v>58.984484</v>
       </c>
       <c r="O13">
-        <v>0.1516869379794603</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="P13">
-        <v>0.1516869379794604</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="Q13">
-        <v>1.892825326526</v>
+        <v>0.1700457135404445</v>
       </c>
       <c r="R13">
-        <v>17.035427938734</v>
+        <v>1.530411421864</v>
       </c>
       <c r="S13">
-        <v>0.07860332186013491</v>
+        <v>0.01380239441017529</v>
       </c>
       <c r="T13">
-        <v>0.07860332186013493</v>
+        <v>0.01380239441017529</v>
       </c>
     </row>
   </sheetData>
